--- a/dados/empresas.xlsx
+++ b/dados/empresas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iury\Desktop\IF\Projeto - Mapa empresas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iury\Desktop\IF\ProjetoMapa\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383F0908-50A1-4F6C-A414-0104BF641369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520C53F8-4654-42D6-97A2-A67EE1CDA4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{75846D20-6A3D-479D-AFD4-F309452F3E2B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{75846D20-6A3D-479D-AFD4-F309452F3E2B}"/>
   </bookViews>
   <sheets>
     <sheet name="empresas" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Energisa</t>
   </si>
@@ -279,12 +279,27 @@
   <si>
     <t>ABRANGÊNCIA_PRODUÇÃO</t>
   </si>
+  <si>
+    <t>Rufino Imóveis</t>
+  </si>
+  <si>
+    <t> R. Treze de Maio, 33 - Centro</t>
+  </si>
+  <si>
+    <t>-21.389344903231965</t>
+  </si>
+  <si>
+    <t>-42.69477177427834</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/HU7Ezto.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +444,13 @@
       <sz val="11"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -793,7 +815,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="13" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -821,6 +843,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -871,13 +899,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -895,6 +916,13 @@
           <color auto="1"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,9 +1277,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1387,7 +1415,22 @@
       <c r="L4" s="5"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E5" s="5"/>
+      <c r="A5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="I5" s="5"/>
       <c r="L5" s="5"/>
     </row>
@@ -1862,14 +1905,14 @@
       <c r="L99" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H2 H1:K1 K2 A1:D2 G1:G2 M1:XFD4 E1:F1 A5:XFD499 A3:K4">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>MOD(LINHA(),2)=0</formula>
+  <conditionalFormatting sqref="E1:F1 H1:K1 A1:D2 G1:G2 M1:XFD4 G2:H2 K2 A3:K4 A6:XFD299 B5:XFD5">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>MOD(LINHA(),2)=1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H2 H1:K1 K2 A1:D2 G1:G2 M1:XFD4 E1:F1 A5:XFD299 A3:K4">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(LINHA(),2)=1</formula>
+  <conditionalFormatting sqref="E1:F1 H1:K1 A1:D2 G1:G2 M1:XFD4 G2:H2 K2 A3:K4 A6:XFD499 B5:XFD5">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>MOD(LINHA(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
